--- a/data_craw/quarter/balance_sheet_quarter/vib.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/vib.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,51 +573,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1371421000000</v>
+        <v>1350714000000</v>
       </c>
       <c r="C4" t="n">
-        <v>1159602000000</v>
+        <v>1421993000000</v>
       </c>
       <c r="D4" t="n">
-        <v>1244934000000</v>
+        <v>1558557000000</v>
       </c>
       <c r="E4" t="n">
-        <v>1419719000000</v>
+        <v>1604348000000</v>
       </c>
       <c r="F4" t="n">
-        <v>1350714000000</v>
+        <v>1453989000000</v>
       </c>
       <c r="G4" t="n">
-        <v>1421993000000</v>
+        <v>1521580000000</v>
       </c>
       <c r="H4" t="n">
-        <v>1558557000000</v>
+        <v>1503973000000</v>
       </c>
       <c r="I4" t="n">
-        <v>1604348000000</v>
+        <v>1745095000000</v>
       </c>
       <c r="J4" t="n">
-        <v>1453989000000</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1521580000000</v>
-      </c>
+        <v>2026802000000</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>1503973000000</v>
+        <v>1382917000000</v>
       </c>
       <c r="M4" t="n">
-        <v>1745095000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2026802000000</v>
-      </c>
+        <v>1315853000000</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
-        <v>1382917000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1315853000000</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -672,53 +664,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7106226000000</v>
+        <v>19441008000000</v>
       </c>
       <c r="C7" t="n">
-        <v>19040311000000</v>
+        <v>24591537000000</v>
       </c>
       <c r="D7" t="n">
-        <v>2982262000000</v>
+        <v>18389868000000</v>
       </c>
       <c r="E7" t="n">
-        <v>18793718000000</v>
+        <v>25714102000000</v>
       </c>
       <c r="F7" t="n">
-        <v>19441008000000</v>
+        <v>9589369000000</v>
       </c>
       <c r="G7" t="n">
-        <v>24591537000000</v>
+        <v>24890710000000</v>
       </c>
       <c r="H7" t="n">
-        <v>18389868000000</v>
+        <v>19951730000000</v>
       </c>
       <c r="I7" t="n">
-        <v>25714102000000</v>
+        <v>6499569000000</v>
       </c>
       <c r="J7" t="n">
-        <v>9589369000000</v>
+        <v>5774042000000</v>
       </c>
       <c r="K7" t="n">
-        <v>24890710000000</v>
+        <v>10062633000000</v>
       </c>
       <c r="L7" t="n">
-        <v>19951730000000</v>
+        <v>5279665000000</v>
       </c>
       <c r="M7" t="n">
-        <v>6499569000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5774042000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>10062633000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5279665000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>6340776000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -796,53 +780,45 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4296982000000</v>
+        <v>7955573000000</v>
       </c>
       <c r="C11" t="n">
-        <v>4011859000000</v>
+        <v>4368977000000</v>
       </c>
       <c r="D11" t="n">
-        <v>5974665000000</v>
+        <v>19180573000000</v>
       </c>
       <c r="E11" t="n">
-        <v>8109221000000</v>
+        <v>17272743000000</v>
       </c>
       <c r="F11" t="n">
-        <v>7955573000000</v>
+        <v>32397411000000</v>
       </c>
       <c r="G11" t="n">
-        <v>4368977000000</v>
+        <v>27985117000000</v>
       </c>
       <c r="H11" t="n">
-        <v>19180573000000</v>
+        <v>35185373000000</v>
       </c>
       <c r="I11" t="n">
-        <v>17272743000000</v>
+        <v>57744071000000</v>
       </c>
       <c r="J11" t="n">
-        <v>32397411000000</v>
+        <v>47914952000000</v>
       </c>
       <c r="K11" t="n">
-        <v>27985117000000</v>
+        <v>51899808000000</v>
       </c>
       <c r="L11" t="n">
-        <v>35185373000000</v>
+        <v>43216256000000</v>
       </c>
       <c r="M11" t="n">
-        <v>57744071000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>47914952000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>51899808000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>43216256000000</v>
-      </c>
-      <c r="Q11" t="n">
         <v>79806086000000</v>
       </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -851,53 +827,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3854122000000</v>
+        <v>6645632000000</v>
       </c>
       <c r="C12" t="n">
-        <v>2873059000000</v>
+        <v>2832959000000</v>
       </c>
       <c r="D12" t="n">
-        <v>4492405000000</v>
+        <v>11655725000000</v>
       </c>
       <c r="E12" t="n">
-        <v>6528845000000</v>
+        <v>6262132000000</v>
       </c>
       <c r="F12" t="n">
-        <v>6645632000000</v>
+        <v>22087387000000</v>
       </c>
       <c r="G12" t="n">
-        <v>2832959000000</v>
+        <v>11747285000000</v>
       </c>
       <c r="H12" t="n">
-        <v>11655725000000</v>
+        <v>19791691000000</v>
       </c>
       <c r="I12" t="n">
-        <v>6262132000000</v>
+        <v>40432840000000</v>
       </c>
       <c r="J12" t="n">
-        <v>22087387000000</v>
+        <v>21927741000000</v>
       </c>
       <c r="K12" t="n">
-        <v>11747285000000</v>
+        <v>27161023000000</v>
       </c>
       <c r="L12" t="n">
-        <v>19791691000000</v>
+        <v>21639436000000</v>
       </c>
       <c r="M12" t="n">
-        <v>40432840000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>21927741000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>27161023000000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>21639436000000</v>
-      </c>
-      <c r="Q12" t="n">
         <v>56809904000000</v>
       </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -906,53 +874,45 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>442860000000</v>
+        <v>1309941000000</v>
       </c>
       <c r="C13" t="n">
-        <v>1138800000000</v>
+        <v>1536018000000</v>
       </c>
       <c r="D13" t="n">
-        <v>1482260000000</v>
+        <v>7524848000000</v>
       </c>
       <c r="E13" t="n">
-        <v>1580376000000</v>
+        <v>11010611000000</v>
       </c>
       <c r="F13" t="n">
-        <v>1309941000000</v>
+        <v>10310024000000</v>
       </c>
       <c r="G13" t="n">
-        <v>1536018000000</v>
+        <v>16237832000000</v>
       </c>
       <c r="H13" t="n">
-        <v>7524848000000</v>
+        <v>15399347000000</v>
       </c>
       <c r="I13" t="n">
-        <v>11010611000000</v>
+        <v>17311231000000</v>
       </c>
       <c r="J13" t="n">
-        <v>10310024000000</v>
+        <v>25987211000000</v>
       </c>
       <c r="K13" t="n">
-        <v>16237832000000</v>
+        <v>24738785000000</v>
       </c>
       <c r="L13" t="n">
-        <v>15399347000000</v>
+        <v>21576820000000</v>
       </c>
       <c r="M13" t="n">
-        <v>17311231000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>25987211000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>24738785000000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>21576820000000</v>
-      </c>
-      <c r="Q13" t="n">
         <v>23039014000000</v>
       </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1081,20 +1041,20 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>-5665000000</v>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>-5665000000</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>-42832000000</v>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>-42832000000</v>
-      </c>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1103,20 +1063,12 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335414000000</v>
-      </c>
-      <c r="C20" t="n">
-        <v>326301000000</v>
-      </c>
-      <c r="D20" t="n">
-        <v>316562000000</v>
-      </c>
-      <c r="E20" t="n">
-        <v>302976000000</v>
-      </c>
-      <c r="F20" t="n">
         <v>272160000000</v>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1136,20 +1088,12 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>336102000000</v>
-      </c>
-      <c r="C21" t="n">
-        <v>326718000000</v>
-      </c>
-      <c r="D21" t="n">
-        <v>316979000000</v>
-      </c>
-      <c r="E21" t="n">
-        <v>305722000000</v>
-      </c>
-      <c r="F21" t="n">
         <v>272461000000</v>
       </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1169,20 +1113,12 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-688000000</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-417000000</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-417000000</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-2746000000</v>
-      </c>
-      <c r="F22" t="n">
         <v>-301000000</v>
       </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1201,42 +1137,38 @@
           <t>V.Tài sản ngắn hạn khác</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>48285000000</v>
-      </c>
-      <c r="E23" t="n">
-        <v>14521000000</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="B23" t="n">
         <v>36881000000</v>
       </c>
-      <c r="G23" t="n">
+      <c r="C23" t="n">
         <v>23753000000</v>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>31992000000</v>
+      </c>
+      <c r="I23" t="n">
+        <v>40934000000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>133257000000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>20958000000</v>
+      </c>
       <c r="L23" t="n">
-        <v>31992000000</v>
+        <v>49557000000</v>
       </c>
       <c r="M23" t="n">
-        <v>40934000000</v>
-      </c>
-      <c r="N23" t="n">
-        <v>133257000000</v>
-      </c>
-      <c r="O23" t="n">
-        <v>20958000000</v>
-      </c>
-      <c r="P23" t="n">
-        <v>49557000000</v>
-      </c>
-      <c r="Q23" t="n">
         <v>371403000000</v>
       </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1383,51 +1315,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>114695000000</v>
+        <v>72852000000</v>
       </c>
       <c r="C30" t="n">
-        <v>109658000000</v>
-      </c>
-      <c r="D30" t="n">
-        <v>105817000000</v>
-      </c>
+        <v>73628000000</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>72809000000</v>
+        <v>74519000000</v>
       </c>
       <c r="F30" t="n">
-        <v>72852000000</v>
+        <v>69542000000</v>
       </c>
       <c r="G30" t="n">
-        <v>73628000000</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+        <v>69544000000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>69545000000</v>
+      </c>
       <c r="I30" t="n">
-        <v>74519000000</v>
+        <v>69556000000</v>
       </c>
       <c r="J30" t="n">
-        <v>69542000000</v>
+        <v>69492000000</v>
       </c>
       <c r="K30" t="n">
-        <v>69544000000</v>
+        <v>69457000000</v>
       </c>
       <c r="L30" t="n">
-        <v>69545000000</v>
+        <v>69457000000</v>
       </c>
       <c r="M30" t="n">
-        <v>69556000000</v>
-      </c>
-      <c r="N30" t="n">
-        <v>69492000000</v>
-      </c>
-      <c r="O30" t="n">
         <v>69457000000</v>
       </c>
-      <c r="P30" t="n">
-        <v>69457000000</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>69457000000</v>
-      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1482,13 +1406,13 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>137272000000</v>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="n">
-        <v>137272000000</v>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,49 +1431,41 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185273000000</v>
-      </c>
-      <c r="C34" t="n">
-        <v>185273000000</v>
-      </c>
-      <c r="D34" t="n">
-        <v>185284000000</v>
-      </c>
+        <v>137273000000</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>137274000000</v>
+        <v>137269000000</v>
       </c>
       <c r="F34" t="n">
-        <v>137273000000</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+        <v>69717000000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>69719000000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>69720000000</v>
+      </c>
       <c r="I34" t="n">
-        <v>137269000000</v>
+        <v>69731000000</v>
       </c>
       <c r="J34" t="n">
-        <v>69717000000</v>
+        <v>69667000000</v>
       </c>
       <c r="K34" t="n">
-        <v>69719000000</v>
+        <v>69667000000</v>
       </c>
       <c r="L34" t="n">
-        <v>69720000000</v>
+        <v>69667000000</v>
       </c>
       <c r="M34" t="n">
-        <v>69731000000</v>
-      </c>
-      <c r="N34" t="n">
         <v>69667000000</v>
       </c>
-      <c r="O34" t="n">
-        <v>69667000000</v>
-      </c>
-      <c r="P34" t="n">
-        <v>69667000000</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>69667000000</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1604,51 +1520,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-70578000000</v>
+        <v>-64421000000</v>
       </c>
       <c r="C37" t="n">
-        <v>-75615000000</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-79467000000</v>
-      </c>
+        <v>-63644000000</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-64465000000</v>
+        <v>-62750000000</v>
       </c>
       <c r="F37" t="n">
-        <v>-64421000000</v>
+        <v>-175000000</v>
       </c>
       <c r="G37" t="n">
-        <v>-63644000000</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>-175000000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-175000000</v>
+      </c>
       <c r="I37" t="n">
-        <v>-62750000000</v>
+        <v>-175000000</v>
       </c>
       <c r="J37" t="n">
         <v>-175000000</v>
       </c>
       <c r="K37" t="n">
-        <v>-175000000</v>
+        <v>-210000000</v>
       </c>
       <c r="L37" t="n">
-        <v>-175000000</v>
+        <v>-210000000</v>
       </c>
       <c r="M37" t="n">
-        <v>-175000000</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-175000000</v>
-      </c>
-      <c r="O37" t="n">
         <v>-210000000</v>
       </c>
-      <c r="P37" t="n">
-        <v>-210000000</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>-210000000</v>
-      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1657,53 +1565,45 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>313569000000</v>
+        <v>345339000000</v>
       </c>
       <c r="C38" t="n">
-        <v>365110000000</v>
+        <v>406874000000</v>
       </c>
       <c r="D38" t="n">
-        <v>357235000000</v>
+        <v>429744000000</v>
       </c>
       <c r="E38" t="n">
-        <v>353876000000</v>
+        <v>510525000000</v>
       </c>
       <c r="F38" t="n">
-        <v>345339000000</v>
+        <v>501515000000</v>
       </c>
       <c r="G38" t="n">
-        <v>406874000000</v>
+        <v>604158000000</v>
       </c>
       <c r="H38" t="n">
-        <v>429744000000</v>
+        <v>596118000000</v>
       </c>
       <c r="I38" t="n">
-        <v>510525000000</v>
+        <v>617888000000</v>
       </c>
       <c r="J38" t="n">
-        <v>501515000000</v>
+        <v>665615000000</v>
       </c>
       <c r="K38" t="n">
-        <v>604158000000</v>
+        <v>699685000000</v>
       </c>
       <c r="L38" t="n">
-        <v>596118000000</v>
+        <v>675918000000</v>
       </c>
       <c r="M38" t="n">
-        <v>617888000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>665615000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>699685000000</v>
-      </c>
-      <c r="P38" t="n">
-        <v>675918000000</v>
-      </c>
-      <c r="Q38" t="n">
         <v>696740000000</v>
       </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1712,53 +1612,45 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>174343000000</v>
+        <v>218774000000</v>
       </c>
       <c r="C39" t="n">
-        <v>228214000000</v>
+        <v>263083000000</v>
       </c>
       <c r="D39" t="n">
-        <v>225941000000</v>
+        <v>280655000000</v>
       </c>
       <c r="E39" t="n">
-        <v>222008000000</v>
+        <v>295121000000</v>
       </c>
       <c r="F39" t="n">
-        <v>218774000000</v>
+        <v>289759000000</v>
       </c>
       <c r="G39" t="n">
-        <v>263083000000</v>
+        <v>302045000000</v>
       </c>
       <c r="H39" t="n">
-        <v>280655000000</v>
+        <v>308154000000</v>
       </c>
       <c r="I39" t="n">
-        <v>295121000000</v>
+        <v>320573000000</v>
       </c>
       <c r="J39" t="n">
-        <v>289759000000</v>
+        <v>376029000000</v>
       </c>
       <c r="K39" t="n">
-        <v>302045000000</v>
+        <v>407765000000</v>
       </c>
       <c r="L39" t="n">
-        <v>308154000000</v>
+        <v>390718000000</v>
       </c>
       <c r="M39" t="n">
-        <v>320573000000</v>
-      </c>
-      <c r="N39" t="n">
-        <v>376029000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>407765000000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>390718000000</v>
-      </c>
-      <c r="Q39" t="n">
         <v>415315000000</v>
       </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1767,53 +1659,45 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>594891000000</v>
+        <v>681856000000</v>
       </c>
       <c r="C40" t="n">
-        <v>659129000000</v>
+        <v>742695000000</v>
       </c>
       <c r="D40" t="n">
-        <v>670621000000</v>
+        <v>774329000000</v>
       </c>
       <c r="E40" t="n">
-        <v>680321000000</v>
+        <v>806498000000</v>
       </c>
       <c r="F40" t="n">
-        <v>681856000000</v>
+        <v>818698000000</v>
       </c>
       <c r="G40" t="n">
-        <v>742695000000</v>
+        <v>838439000000</v>
       </c>
       <c r="H40" t="n">
-        <v>774329000000</v>
+        <v>863149000000</v>
       </c>
       <c r="I40" t="n">
-        <v>806498000000</v>
+        <v>885882000000</v>
       </c>
       <c r="J40" t="n">
-        <v>818698000000</v>
+        <v>964220000000</v>
       </c>
       <c r="K40" t="n">
-        <v>838439000000</v>
+        <v>993287000000</v>
       </c>
       <c r="L40" t="n">
-        <v>863149000000</v>
+        <v>998428000000</v>
       </c>
       <c r="M40" t="n">
-        <v>885882000000</v>
-      </c>
-      <c r="N40" t="n">
-        <v>964220000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>993287000000</v>
-      </c>
-      <c r="P40" t="n">
-        <v>998428000000</v>
-      </c>
-      <c r="Q40" t="n">
         <v>1039353000000</v>
       </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1822,53 +1706,45 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-420548000000</v>
+        <v>-463082000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-430915000000</v>
+        <v>-479612000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-444680000000</v>
+        <v>-493674000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-458313000000</v>
+        <v>-511377000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-463082000000</v>
+        <v>-528939000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-479612000000</v>
+        <v>-536394000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-493674000000</v>
+        <v>-554995000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-511377000000</v>
+        <v>-565309000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-528939000000</v>
+        <v>-588191000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-536394000000</v>
+        <v>-585522000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-554995000000</v>
+        <v>-607710000000</v>
       </c>
       <c r="M41" t="n">
-        <v>-565309000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-588191000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-585522000000</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-607710000000</v>
-      </c>
-      <c r="Q41" t="n">
         <v>-624038000000</v>
       </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1946,53 +1822,45 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>139226000000</v>
+        <v>126565000000</v>
       </c>
       <c r="C45" t="n">
-        <v>136896000000</v>
+        <v>143791000000</v>
       </c>
       <c r="D45" t="n">
-        <v>131294000000</v>
+        <v>149089000000</v>
       </c>
       <c r="E45" t="n">
-        <v>131868000000</v>
+        <v>215404000000</v>
       </c>
       <c r="F45" t="n">
-        <v>126565000000</v>
+        <v>211756000000</v>
       </c>
       <c r="G45" t="n">
-        <v>143791000000</v>
+        <v>302113000000</v>
       </c>
       <c r="H45" t="n">
-        <v>149089000000</v>
+        <v>287964000000</v>
       </c>
       <c r="I45" t="n">
-        <v>215404000000</v>
+        <v>297315000000</v>
       </c>
       <c r="J45" t="n">
-        <v>211756000000</v>
+        <v>289586000000</v>
       </c>
       <c r="K45" t="n">
-        <v>302113000000</v>
+        <v>291920000000</v>
       </c>
       <c r="L45" t="n">
-        <v>287964000000</v>
+        <v>285200000000</v>
       </c>
       <c r="M45" t="n">
-        <v>297315000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>289586000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>291920000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>285200000000</v>
-      </c>
-      <c r="Q45" t="n">
         <v>281425000000</v>
       </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2001,53 +1869,45 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>333718000000</v>
+        <v>352904000000</v>
       </c>
       <c r="C46" t="n">
-        <v>339294000000</v>
+        <v>378606000000</v>
       </c>
       <c r="D46" t="n">
-        <v>341463000000</v>
+        <v>392963000000</v>
       </c>
       <c r="E46" t="n">
-        <v>350135000000</v>
+        <v>470619000000</v>
       </c>
       <c r="F46" t="n">
-        <v>352904000000</v>
+        <v>478256000000</v>
       </c>
       <c r="G46" t="n">
-        <v>378606000000</v>
+        <v>583271000000</v>
       </c>
       <c r="H46" t="n">
-        <v>392963000000</v>
+        <v>583271000000</v>
       </c>
       <c r="I46" t="n">
-        <v>470619000000</v>
+        <v>608049000000</v>
       </c>
       <c r="J46" t="n">
-        <v>478256000000</v>
+        <v>615213000000</v>
       </c>
       <c r="K46" t="n">
-        <v>583271000000</v>
+        <v>633324000000</v>
       </c>
       <c r="L46" t="n">
-        <v>583271000000</v>
+        <v>642157000000</v>
       </c>
       <c r="M46" t="n">
-        <v>608049000000</v>
-      </c>
-      <c r="N46" t="n">
-        <v>615213000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>633324000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>642157000000</v>
-      </c>
-      <c r="Q46" t="n">
         <v>654152000000</v>
       </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2056,53 +1916,45 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-194492000000</v>
+        <v>-226339000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-202398000000</v>
+        <v>-234815000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-210169000000</v>
+        <v>-243874000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-218267000000</v>
+        <v>-255215000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-226339000000</v>
+        <v>-266500000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-234815000000</v>
+        <v>-281158000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-243874000000</v>
+        <v>-295307000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-255215000000</v>
+        <v>-310734000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-266500000000</v>
+        <v>-325627000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-281158000000</v>
+        <v>-341404000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-295307000000</v>
+        <v>-356957000000</v>
       </c>
       <c r="M47" t="n">
-        <v>-310734000000</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-325627000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-341404000000</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-356957000000</v>
-      </c>
-      <c r="Q47" t="n">
         <v>-372727000000</v>
       </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2181,40 +2033,40 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>2955000000</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2919000000</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2883000000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2847000000</v>
+      </c>
       <c r="H51" t="n">
-        <v>2955000000</v>
+        <v>2811000000</v>
       </c>
       <c r="I51" t="n">
-        <v>2919000000</v>
+        <v>2775000000</v>
       </c>
       <c r="J51" t="n">
-        <v>2883000000</v>
+        <v>2677000000</v>
       </c>
       <c r="K51" t="n">
-        <v>2847000000</v>
+        <v>2642000000</v>
       </c>
       <c r="L51" t="n">
-        <v>2811000000</v>
+        <v>2607000000</v>
       </c>
       <c r="M51" t="n">
-        <v>2775000000</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2677000000</v>
-      </c>
-      <c r="O51" t="n">
-        <v>2642000000</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2607000000</v>
-      </c>
-      <c r="Q51" t="n">
         <v>2572000000</v>
       </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2224,10 +2076,18 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>3604000000</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3604000000</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3604000000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3604000000</v>
+      </c>
       <c r="H52" t="n">
         <v>3604000000</v>
       </c>
@@ -2235,29 +2095,21 @@
         <v>3604000000</v>
       </c>
       <c r="J52" t="n">
-        <v>3604000000</v>
+        <v>3542000000</v>
       </c>
       <c r="K52" t="n">
-        <v>3604000000</v>
+        <v>3542000000</v>
       </c>
       <c r="L52" t="n">
-        <v>3604000000</v>
+        <v>3542000000</v>
       </c>
       <c r="M52" t="n">
-        <v>3604000000</v>
-      </c>
-      <c r="N52" t="n">
         <v>3542000000</v>
       </c>
-      <c r="O52" t="n">
-        <v>3542000000</v>
-      </c>
-      <c r="P52" t="n">
-        <v>3542000000</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>3542000000</v>
-      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2267,40 +2119,40 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>-649000000</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-685000000</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-721000000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-757000000</v>
+      </c>
       <c r="H53" t="n">
-        <v>-649000000</v>
+        <v>-793000000</v>
       </c>
       <c r="I53" t="n">
-        <v>-685000000</v>
+        <v>-829000000</v>
       </c>
       <c r="J53" t="n">
-        <v>-721000000</v>
+        <v>-865000000</v>
       </c>
       <c r="K53" t="n">
-        <v>-757000000</v>
+        <v>-900000000</v>
       </c>
       <c r="L53" t="n">
-        <v>-793000000</v>
+        <v>-935000000</v>
       </c>
       <c r="M53" t="n">
-        <v>-829000000</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-865000000</v>
-      </c>
-      <c r="O53" t="n">
-        <v>-900000000</v>
-      </c>
-      <c r="P53" t="n">
-        <v>-935000000</v>
-      </c>
-      <c r="Q53" t="n">
         <v>-970000000</v>
       </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2309,53 +2161,45 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3596415000000</v>
+        <v>5556254000000</v>
       </c>
       <c r="C54" t="n">
-        <v>3773250000000</v>
+        <v>4396495000000</v>
       </c>
       <c r="D54" t="n">
-        <v>4730119000000</v>
+        <v>5251864000000</v>
       </c>
       <c r="E54" t="n">
-        <v>5404854000000</v>
+        <v>10806994000000</v>
       </c>
       <c r="F54" t="n">
-        <v>5556254000000</v>
+        <v>11317936000000</v>
       </c>
       <c r="G54" t="n">
-        <v>4396495000000</v>
+        <v>10430709000000</v>
       </c>
       <c r="H54" t="n">
-        <v>5251864000000</v>
+        <v>13518031000000</v>
       </c>
       <c r="I54" t="n">
-        <v>10806994000000</v>
+        <v>13644875000000</v>
       </c>
       <c r="J54" t="n">
-        <v>11317936000000</v>
+        <v>11375973000000</v>
       </c>
       <c r="K54" t="n">
-        <v>10430709000000</v>
+        <v>9434943000000</v>
       </c>
       <c r="L54" t="n">
-        <v>13518031000000</v>
+        <v>6699743000000</v>
       </c>
       <c r="M54" t="n">
-        <v>13644875000000</v>
-      </c>
-      <c r="N54" t="n">
-        <v>11375973000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>9434943000000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>6699743000000</v>
-      </c>
-      <c r="Q54" t="n">
         <v>8369440000000</v>
       </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2364,53 +2208,45 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1335007000000</v>
+        <v>3108775000000</v>
       </c>
       <c r="C55" t="n">
-        <v>1644669000000</v>
+        <v>1829744000000</v>
       </c>
       <c r="D55" t="n">
-        <v>2285991000000</v>
+        <v>2438939000000</v>
       </c>
       <c r="E55" t="n">
-        <v>3288916000000</v>
+        <v>8176475000000</v>
       </c>
       <c r="F55" t="n">
-        <v>3108775000000</v>
+        <v>8427574000000</v>
       </c>
       <c r="G55" t="n">
-        <v>1829744000000</v>
+        <v>7627526000000</v>
       </c>
       <c r="H55" t="n">
-        <v>2438939000000</v>
+        <v>10185614000000</v>
       </c>
       <c r="I55" t="n">
-        <v>8176475000000</v>
+        <v>10543968000000</v>
       </c>
       <c r="J55" t="n">
-        <v>8427574000000</v>
+        <v>7613395000000</v>
       </c>
       <c r="K55" t="n">
-        <v>7627526000000</v>
+        <v>5523384000000</v>
       </c>
       <c r="L55" t="n">
-        <v>10185614000000</v>
+        <v>2235775000000</v>
       </c>
       <c r="M55" t="n">
-        <v>10543968000000</v>
-      </c>
-      <c r="N55" t="n">
-        <v>7613395000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>5523384000000</v>
-      </c>
-      <c r="P55" t="n">
-        <v>2235775000000</v>
-      </c>
-      <c r="Q55" t="n">
         <v>3861473000000</v>
       </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2419,53 +2255,45 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1657307000000</v>
+        <v>1765566000000</v>
       </c>
       <c r="C56" t="n">
-        <v>1495990000000</v>
+        <v>1798326000000</v>
       </c>
       <c r="D56" t="n">
-        <v>1808490000000</v>
+        <v>2003371000000</v>
       </c>
       <c r="E56" t="n">
-        <v>1459344000000</v>
+        <v>1735236000000</v>
       </c>
       <c r="F56" t="n">
-        <v>1765566000000</v>
+        <v>1960948000000</v>
       </c>
       <c r="G56" t="n">
-        <v>1798326000000</v>
+        <v>1856781000000</v>
       </c>
       <c r="H56" t="n">
-        <v>2003371000000</v>
+        <v>2384535000000</v>
       </c>
       <c r="I56" t="n">
-        <v>1735236000000</v>
+        <v>2104198000000</v>
       </c>
       <c r="J56" t="n">
-        <v>1960948000000</v>
+        <v>2731926000000</v>
       </c>
       <c r="K56" t="n">
-        <v>1856781000000</v>
+        <v>2432288000000</v>
       </c>
       <c r="L56" t="n">
-        <v>2384535000000</v>
+        <v>3234278000000</v>
       </c>
       <c r="M56" t="n">
-        <v>2104198000000</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2731926000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>2432288000000</v>
-      </c>
-      <c r="P56" t="n">
-        <v>3234278000000</v>
-      </c>
-      <c r="Q56" t="n">
         <v>3434374000000</v>
       </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2474,20 +2302,12 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>127000000</v>
-      </c>
-      <c r="C57" t="n">
         <v>162000000</v>
       </c>
-      <c r="D57" t="n">
-        <v>162000000</v>
-      </c>
-      <c r="E57" t="n">
-        <v>162000000</v>
-      </c>
-      <c r="F57" t="n">
-        <v>162000000</v>
-      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2507,51 +2327,43 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>603974000000</v>
-      </c>
-      <c r="C58" t="n">
-        <v>632429000000</v>
-      </c>
+        <v>681751000000</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>635476000000</v>
+        <v>809554000000</v>
       </c>
       <c r="E58" t="n">
-        <v>656432000000</v>
+        <v>895283000000</v>
       </c>
       <c r="F58" t="n">
-        <v>681751000000</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+        <v>929414000000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>995496000000</v>
+      </c>
       <c r="H58" t="n">
-        <v>809554000000</v>
+        <v>1016249000000</v>
       </c>
       <c r="I58" t="n">
-        <v>895283000000</v>
+        <v>1066166000000</v>
       </c>
       <c r="J58" t="n">
-        <v>929414000000</v>
+        <v>1077160000000</v>
       </c>
       <c r="K58" t="n">
-        <v>995496000000</v>
+        <v>1511083000000</v>
       </c>
       <c r="L58" t="n">
-        <v>1016249000000</v>
+        <v>1238735000000</v>
       </c>
       <c r="M58" t="n">
-        <v>1066166000000</v>
-      </c>
-      <c r="N58" t="n">
-        <v>1077160000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1511083000000</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1238735000000</v>
-      </c>
-      <c r="Q58" t="n">
         <v>1092717000000</v>
       </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2767,53 +2579,45 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>175657834000000</v>
+        <v>213086346000000</v>
       </c>
       <c r="C68" t="n">
-        <v>184570119000000</v>
+        <v>244701478000000</v>
       </c>
       <c r="D68" t="n">
-        <v>193314367000000</v>
+        <v>257866042000000</v>
       </c>
       <c r="E68" t="n">
-        <v>202369814000000</v>
+        <v>277200433000000</v>
       </c>
       <c r="F68" t="n">
-        <v>213086346000000</v>
+        <v>285035255000000</v>
       </c>
       <c r="G68" t="n">
-        <v>244701478000000</v>
+        <v>309517129000000</v>
       </c>
       <c r="H68" t="n">
-        <v>257866042000000</v>
+        <v>333850243000000</v>
       </c>
       <c r="I68" t="n">
-        <v>277200433000000</v>
+        <v>348022816000000</v>
       </c>
       <c r="J68" t="n">
-        <v>285035255000000</v>
+        <v>340910343000000</v>
       </c>
       <c r="K68" t="n">
-        <v>309517129000000</v>
+        <v>343069186000000</v>
       </c>
       <c r="L68" t="n">
-        <v>333850243000000</v>
+        <v>357247165000000</v>
       </c>
       <c r="M68" t="n">
-        <v>348022816000000</v>
-      </c>
-      <c r="N68" t="n">
-        <v>340910343000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>343069186000000</v>
-      </c>
-      <c r="P68" t="n">
-        <v>357247165000000</v>
-      </c>
-      <c r="Q68" t="n">
         <v>378662835000000</v>
       </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2829,13 +2633,13 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>78472013000000</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
-        <v>78472013000000</v>
-      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -3054,53 +2858,45 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>29575269000000</v>
+        <v>25390601000000</v>
       </c>
       <c r="C79" t="n">
-        <v>27225110000000</v>
+        <v>42476122000000</v>
       </c>
       <c r="D79" t="n">
-        <v>33579545000000</v>
+        <v>47656869000000</v>
       </c>
       <c r="E79" t="n">
-        <v>34033521000000</v>
+        <v>53168217000000</v>
       </c>
       <c r="F79" t="n">
-        <v>25390601000000</v>
+        <v>59685144000000</v>
       </c>
       <c r="G79" t="n">
-        <v>42476122000000</v>
+        <v>64456470000000</v>
       </c>
       <c r="H79" t="n">
-        <v>47656869000000</v>
+        <v>75387839000000</v>
       </c>
       <c r="I79" t="n">
-        <v>53168217000000</v>
+        <v>75311372000000</v>
       </c>
       <c r="J79" t="n">
-        <v>59685144000000</v>
+        <v>49906439000000</v>
       </c>
       <c r="K79" t="n">
-        <v>64456470000000</v>
+        <v>71166441000000</v>
       </c>
       <c r="L79" t="n">
-        <v>75387839000000</v>
+        <v>86315743000000</v>
       </c>
       <c r="M79" t="n">
-        <v>75311372000000</v>
-      </c>
-      <c r="N79" t="n">
-        <v>49906439000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>71166441000000</v>
-      </c>
-      <c r="P79" t="n">
-        <v>86315743000000</v>
-      </c>
-      <c r="Q79" t="n">
         <v>106384817000000</v>
       </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3109,51 +2905,43 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>18076167000000</v>
+        <v>13095343000000</v>
       </c>
       <c r="C80" t="n">
-        <v>14178878000000</v>
+        <v>26874923000000</v>
       </c>
       <c r="D80" t="n">
-        <v>18102562000000</v>
+        <v>33052865000000</v>
       </c>
       <c r="E80" t="n">
-        <v>19283486000000</v>
+        <v>29823099000000</v>
       </c>
       <c r="F80" t="n">
-        <v>13095343000000</v>
+        <v>35911840000000</v>
       </c>
       <c r="G80" t="n">
-        <v>26874923000000</v>
+        <v>38019670000000</v>
       </c>
       <c r="H80" t="n">
-        <v>33052865000000</v>
+        <v>43889559000000</v>
       </c>
       <c r="I80" t="n">
-        <v>29823099000000</v>
-      </c>
-      <c r="J80" t="n">
-        <v>35911840000000</v>
-      </c>
+        <v>41048773000000</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>38019670000000</v>
+        <v>45957711000000</v>
       </c>
       <c r="L80" t="n">
-        <v>43889559000000</v>
+        <v>67893907000000</v>
       </c>
       <c r="M80" t="n">
-        <v>41048773000000</v>
+        <v>83951657000000</v>
       </c>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="n">
-        <v>45957711000000</v>
-      </c>
-      <c r="P80" t="n">
-        <v>67893907000000</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>83951657000000</v>
-      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3162,53 +2950,45 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>11499102000000</v>
+        <v>12295258000000</v>
       </c>
       <c r="C81" t="n">
-        <v>13046232000000</v>
+        <v>15601199000000</v>
       </c>
       <c r="D81" t="n">
-        <v>15476983000000</v>
+        <v>14604004000000</v>
       </c>
       <c r="E81" t="n">
-        <v>14750035000000</v>
+        <v>23345118000000</v>
       </c>
       <c r="F81" t="n">
-        <v>12295258000000</v>
+        <v>23773304000000</v>
       </c>
       <c r="G81" t="n">
-        <v>15601199000000</v>
+        <v>26436800000000</v>
       </c>
       <c r="H81" t="n">
-        <v>14604004000000</v>
+        <v>31498280000000</v>
       </c>
       <c r="I81" t="n">
-        <v>23345118000000</v>
+        <v>34262599000000</v>
       </c>
       <c r="J81" t="n">
-        <v>23773304000000</v>
+        <v>28565574000000</v>
       </c>
       <c r="K81" t="n">
-        <v>26436800000000</v>
+        <v>25208730000000</v>
       </c>
       <c r="L81" t="n">
-        <v>31498280000000</v>
+        <v>18421836000000</v>
       </c>
       <c r="M81" t="n">
-        <v>34262599000000</v>
-      </c>
-      <c r="N81" t="n">
-        <v>28565574000000</v>
-      </c>
-      <c r="O81" t="n">
-        <v>25208730000000</v>
-      </c>
-      <c r="P81" t="n">
-        <v>18421836000000</v>
-      </c>
-      <c r="Q81" t="n">
         <v>22433160000000</v>
       </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3263,53 +3043,45 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>113716543000000</v>
+        <v>138030636000000</v>
       </c>
       <c r="C84" t="n">
-        <v>122357044000000</v>
+        <v>150360495000000</v>
       </c>
       <c r="D84" t="n">
-        <v>123195235000000</v>
+        <v>156867117000000</v>
       </c>
       <c r="E84" t="n">
-        <v>127953459000000</v>
+        <v>168109367000000</v>
       </c>
       <c r="F84" t="n">
-        <v>138030636000000</v>
+        <v>170590963000000</v>
       </c>
       <c r="G84" t="n">
-        <v>150360495000000</v>
+        <v>173564890000000</v>
       </c>
       <c r="H84" t="n">
-        <v>156867117000000</v>
+        <v>183802071000000</v>
       </c>
       <c r="I84" t="n">
-        <v>168109367000000</v>
+        <v>197169492000000</v>
       </c>
       <c r="J84" t="n">
-        <v>170590963000000</v>
+        <v>189033408000000</v>
       </c>
       <c r="K84" t="n">
-        <v>173564890000000</v>
+        <v>200123940000000</v>
       </c>
       <c r="L84" t="n">
-        <v>183802071000000</v>
+        <v>199267040000000</v>
       </c>
       <c r="M84" t="n">
-        <v>197169492000000</v>
-      </c>
-      <c r="N84" t="n">
-        <v>189033408000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>200123940000000</v>
-      </c>
-      <c r="P84" t="n">
-        <v>199267040000000</v>
-      </c>
-      <c r="Q84" t="n">
         <v>205302772000000</v>
       </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3524,28 +3296,24 @@
           <t>10. Cổ phiếu ưu đãi</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>83254000000</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2426000000</v>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="n">
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="n">
         <v>11981000000</v>
       </c>
-      <c r="I94" t="n">
+      <c r="E94" t="n">
         <v>77044000000</v>
       </c>
-      <c r="J94" t="n">
+      <c r="F94" t="n">
         <v>304384000000</v>
       </c>
-      <c r="K94" t="n">
+      <c r="G94" t="n">
         <v>63933000000</v>
       </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
@@ -3629,53 +3397,45 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>163159368000000</v>
+        <v>196534446000000</v>
       </c>
       <c r="C98" t="n">
-        <v>171138819000000</v>
+        <v>226729386000000</v>
       </c>
       <c r="D98" t="n">
-        <v>179029563000000</v>
+        <v>238540305000000</v>
       </c>
       <c r="E98" t="n">
-        <v>187154218000000</v>
+        <v>256152093000000</v>
       </c>
       <c r="F98" t="n">
-        <v>196534446000000</v>
+        <v>262876686000000</v>
       </c>
       <c r="G98" t="n">
-        <v>226729386000000</v>
+        <v>285226389000000</v>
       </c>
       <c r="H98" t="n">
-        <v>238540305000000</v>
+        <v>307838772000000</v>
       </c>
       <c r="I98" t="n">
-        <v>256152093000000</v>
+        <v>319773142000000</v>
       </c>
       <c r="J98" t="n">
-        <v>262876686000000</v>
+        <v>310432602000000</v>
       </c>
       <c r="K98" t="n">
-        <v>285226389000000</v>
+        <v>310418141000000</v>
       </c>
       <c r="L98" t="n">
-        <v>307838772000000</v>
+        <v>324676749000000</v>
       </c>
       <c r="M98" t="n">
-        <v>319773142000000</v>
-      </c>
-      <c r="N98" t="n">
-        <v>310432602000000</v>
-      </c>
-      <c r="O98" t="n">
-        <v>310418141000000</v>
-      </c>
-      <c r="P98" t="n">
-        <v>324676749000000</v>
-      </c>
-      <c r="Q98" t="n">
         <v>344752989000000</v>
       </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3710,50 +3470,42 @@
         <v>9244914000000</v>
       </c>
       <c r="C100" t="n">
-        <v>9244914000000</v>
+        <v>11093879000000</v>
       </c>
       <c r="D100" t="n">
-        <v>9244914000000</v>
+        <v>11093879000000</v>
       </c>
       <c r="E100" t="n">
-        <v>9244914000000</v>
+        <v>15531430000000</v>
       </c>
       <c r="F100" t="n">
-        <v>9244914000000</v>
+        <v>15531430000000</v>
       </c>
       <c r="G100" t="n">
-        <v>11093879000000</v>
+        <v>15531430000000</v>
       </c>
       <c r="H100" t="n">
-        <v>11093879000000</v>
+        <v>15531430000000</v>
       </c>
       <c r="I100" t="n">
-        <v>15531430000000</v>
+        <v>21076730000000</v>
       </c>
       <c r="J100" t="n">
-        <v>15531430000000</v>
+        <v>21076730000000</v>
       </c>
       <c r="K100" t="n">
-        <v>15531430000000</v>
+        <v>21076730000000</v>
       </c>
       <c r="L100" t="n">
-        <v>15531430000000</v>
+        <v>21076730000000</v>
       </c>
       <c r="M100" t="n">
-        <v>21076730000000</v>
-      </c>
-      <c r="N100" t="n">
-        <v>21076730000000</v>
-      </c>
-      <c r="O100" t="n">
-        <v>21076730000000</v>
-      </c>
-      <c r="P100" t="n">
-        <v>21076730000000</v>
-      </c>
-      <c r="Q100" t="n">
         <v>25368075000000</v>
       </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3809,9 +3561,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="n">
-        <v>1332000000</v>
-      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3836,48 +3586,42 @@
         <v>1332000000</v>
       </c>
       <c r="C104" t="n">
-        <v>1332000000</v>
-      </c>
-      <c r="D104" t="inlineStr"/>
+        <v>1350000000</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1350000000</v>
+      </c>
       <c r="E104" t="n">
-        <v>1332000000</v>
+        <v>1480000000</v>
       </c>
       <c r="F104" t="n">
-        <v>1332000000</v>
+        <v>1480000000</v>
       </c>
       <c r="G104" t="n">
-        <v>1350000000</v>
+        <v>1480000000</v>
       </c>
       <c r="H104" t="n">
-        <v>1350000000</v>
+        <v>1480000000</v>
       </c>
       <c r="I104" t="n">
-        <v>1480000000</v>
+        <v>1540000000</v>
       </c>
       <c r="J104" t="n">
-        <v>1480000000</v>
+        <v>1540000000</v>
       </c>
       <c r="K104" t="n">
-        <v>1480000000</v>
+        <v>1540000000</v>
       </c>
       <c r="L104" t="n">
-        <v>1480000000</v>
+        <v>1540000000</v>
       </c>
       <c r="M104" t="n">
         <v>1540000000</v>
       </c>
-      <c r="N104" t="n">
-        <v>1540000000</v>
-      </c>
-      <c r="O104" t="n">
-        <v>1540000000</v>
-      </c>
-      <c r="P104" t="n">
-        <v>1540000000</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>1540000000</v>
-      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4024,53 +3768,45 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>893032000000</v>
+        <v>3083856000000</v>
       </c>
       <c r="C111" t="n">
-        <v>2593032000000</v>
+        <v>1252898000000</v>
       </c>
       <c r="D111" t="n">
-        <v>2593032000000</v>
+        <v>1948561000000</v>
       </c>
       <c r="E111" t="n">
-        <v>3083856000000</v>
+        <v>1786751000000</v>
       </c>
       <c r="F111" t="n">
-        <v>3083856000000</v>
+        <v>1786751000000</v>
       </c>
       <c r="G111" t="n">
-        <v>1252898000000</v>
+        <v>1786751000000</v>
       </c>
       <c r="H111" t="n">
-        <v>1948561000000</v>
+        <v>2746536000000</v>
       </c>
       <c r="I111" t="n">
-        <v>1786751000000</v>
+        <v>2517553000000</v>
       </c>
       <c r="J111" t="n">
-        <v>1786751000000</v>
+        <v>2517553000000</v>
       </c>
       <c r="K111" t="n">
-        <v>1786751000000</v>
+        <v>2517533000000</v>
       </c>
       <c r="L111" t="n">
-        <v>2746536000000</v>
+        <v>3790336000000</v>
       </c>
       <c r="M111" t="n">
-        <v>2517553000000</v>
-      </c>
-      <c r="N111" t="n">
-        <v>2517553000000</v>
-      </c>
-      <c r="O111" t="n">
-        <v>2517533000000</v>
-      </c>
-      <c r="P111" t="n">
-        <v>3790336000000</v>
-      </c>
-      <c r="Q111" t="n">
         <v>3470408000000</v>
       </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4194,45 +3930,39 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>348000000</v>
+        <v>365000000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>-5089000000</v>
+        <v>-1534000000</v>
       </c>
       <c r="E117" t="n">
-        <v>-1055000000</v>
+        <v>3354000000</v>
       </c>
       <c r="F117" t="n">
-        <v>365000000</v>
+        <v>5530000000</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>-1534000000</v>
+        <v>-2405000000</v>
       </c>
       <c r="I117" t="n">
-        <v>3354000000</v>
+        <v>40430000000</v>
       </c>
       <c r="J117" t="n">
-        <v>5530000000</v>
+        <v>35090000000</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>-2405000000</v>
+        <v>-18750000000</v>
       </c>
       <c r="M117" t="n">
-        <v>40430000000</v>
-      </c>
-      <c r="N117" t="n">
-        <v>35090000000</v>
-      </c>
+        <v>16119000000</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
-      <c r="P117" t="n">
-        <v>-18750000000</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>16119000000</v>
-      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
